--- a/result/2022-10-04 00-53-00/Check_submod/random10000thinking.xlsx
+++ b/result/2022-10-04 00-53-00/Check_submod/random10000thinking.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression\result\2022-10-04 00-53-00\Check_submod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6F86FCC5-9B74-4C93-9125-E3FCA1AF8ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4532E89A-211F-4B63-AE4B-24264B2B1236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random10000" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="2413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="2414">
   <si>
     <t>K_T</t>
   </si>
@@ -7267,11 +7281,15 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>ave_all</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12701,16 +12719,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12750,8 +12768,11 @@
       <c r="N1" t="s">
         <v>2412</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -12796,8 +12817,12 @@
         <f>M2/COUNT(H:H)</f>
         <v>0.29416666666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2">
+        <f>AVERAGE(H:H)</f>
+        <v>1.3286089166666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12827,7 +12852,7 @@
         <v>-8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -12857,7 +12882,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12887,7 +12912,7 @@
         <v>-0.27379999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -12917,7 +12942,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -12947,7 +12972,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -12977,7 +13002,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -13007,7 +13032,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -13037,7 +13062,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -13067,7 +13092,7 @@
         <v>-0.76070000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -13097,7 +13122,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -13127,7 +13152,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -13157,7 +13182,7 @@
         <v>-4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -13187,7 +13212,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>37</v>
       </c>
